--- a/public/data/yield_loss/yield_table_gabon.xlsx
+++ b/public/data/yield_loss/yield_table_gabon.xlsx
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1381.35</v>
+        <v>1221.12</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>136.18</v>
+        <v>128.64</v>
       </c>
       <c r="V2" t="n">
         <v>140.06</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1825.06</v>
+        <v>1460.08</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>190.32</v>
+        <v>166.98</v>
       </c>
       <c r="V3" t="n">
         <v>391.4</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.41</v>
+        <v>8.33</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="V4" t="n">
         <v>3.5</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6474.97</v>
+        <v>3203.32</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5517.28</v>
+        <v>3979.55</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>838.48</v>
+        <v>552.07</v>
       </c>
       <c r="V5" t="n">
         <v>5653.07</v>
       </c>
       <c r="W5" t="n">
-        <v>273.75</v>
+        <v>247.18</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.13</v>
+        <v>12.61</v>
       </c>
       <c r="G6" t="n">
         <v>1369.35</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3503.14</v>
+        <v>1659.31</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1200.9</v>
+        <v>1160.78</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>312.65</v>
+        <v>164.39</v>
       </c>
       <c r="V6" t="n">
         <v>1094.97</v>
       </c>
       <c r="W6" t="n">
-        <v>148.25</v>
+        <v>123.55</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.87</v>
+        <v>14.04</v>
       </c>
       <c r="G7" t="n">
         <v>1536.82</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1494.87</v>
+        <v>901.9</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>59200.73</v>
+        <v>1095.21</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>334.39</v>
+        <v>175.79</v>
       </c>
       <c r="V7" t="n">
         <v>2013.01</v>
       </c>
       <c r="W7" t="n">
-        <v>184.84</v>
+        <v>118.91</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.84</v>
+        <v>4.21</v>
       </c>
       <c r="G8" t="n">
         <v>14578.12</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>8569.23</v>
+        <v>6325.82</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>87339.33</v>
+        <v>10301.37</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.6</v>
+        <v>30.35</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>934.19</v>
+        <v>930.95</v>
       </c>
       <c r="V8" t="n">
-        <v>21970.71</v>
+        <v>21937.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1381.64</v>
+        <v>874.96</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.55</v>
+        <v>7.59</v>
       </c>
       <c r="G9" t="n">
         <v>551.66</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>948.27</v>
+        <v>938.36</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>622.45</v>
+        <v>586.68</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>85.7</v>
+        <v>90.63</v>
       </c>
       <c r="V9" t="n">
         <v>400.36</v>
       </c>
       <c r="W9" t="n">
-        <v>91.97</v>
+        <v>78.95</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.98</v>
+        <v>6.66</v>
       </c>
       <c r="G10" t="n">
         <v>859.97</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2424.51</v>
+        <v>1136.28</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1055.63</v>
+        <v>1052.08</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>281.47</v>
+        <v>164.76</v>
       </c>
       <c r="V10" t="n">
         <v>1290.41</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1123.23</v>
+        <v>752.65</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>515.91</v>
+        <v>511.3</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>99.81</v>
+        <v>69.02</v>
       </c>
       <c r="V11" t="n">
         <v>287.91</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1507.19</v>
+        <v>1373</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>156.59</v>
+        <v>155.59</v>
       </c>
       <c r="V12" t="n">
         <v>240.08</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="G13" t="n">
         <v>89.61</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1050.41</v>
+        <v>976.17</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>93.21</v>
+        <v>90.66</v>
       </c>
       <c r="V13" t="n">
         <v>82.57</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.59</v>
+        <v>11.46</v>
       </c>
       <c r="G14" t="n">
         <v>98.78</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2559.24</v>
+        <v>2458.5</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>296.41</v>
+        <v>293.54</v>
       </c>
       <c r="V14" t="n">
         <v>445.68</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>755.27</v>
+        <v>675.57</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>660.61</v>
+        <v>618.63</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>119.33</v>
+        <v>116.21</v>
       </c>
       <c r="V15" t="n">
         <v>544.67</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>403.33</v>
+        <v>396.01</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.27</v>
+        <v>45.85</v>
       </c>
       <c r="V16" t="n">
         <v>31.26</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>800.72</v>
+        <v>365.79</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>447.12</v>
+        <v>436.28</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>110.61</v>
+        <v>69.47</v>
       </c>
       <c r="V17" t="n">
         <v>511.83</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>65.64</v>
+        <v>46.75</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7.03</v>
+        <v>5.02</v>
       </c>
       <c r="V18" t="n">
         <v>2.08</v>
@@ -2656,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1192.21</v>
+        <v>762.9</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>946.75</v>
+        <v>914.18</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>199.84</v>
+        <v>157.83</v>
       </c>
       <c r="V19" t="n">
         <v>1110.91</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>368.24</v>
+        <v>350.61</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.35</v>
+        <v>31.18</v>
       </c>
       <c r="V20" t="n">
         <v>33.72</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3182.69</v>
+        <v>1078.16</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>843.92</v>
+        <v>813.16</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>410.56</v>
+        <v>164.72</v>
       </c>
       <c r="V21" t="n">
         <v>815.68</v>
       </c>
       <c r="W21" t="n">
-        <v>37.91</v>
+        <v>37.89</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>20.35</v>
+        <v>20.31</v>
       </c>
       <c r="G23" t="n">
         <v>498.01</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7327.77</v>
+        <v>5143.06</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3093.49</v>
+        <v>3062.72</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>860.4</v>
+        <v>618.56</v>
       </c>
       <c r="V23" t="n">
         <v>1354.78</v>
       </c>
       <c r="W23" t="n">
-        <v>135.36</v>
+        <v>135.34</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>996.33</v>
+        <v>331.07</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>277.8</v>
+        <v>275.58</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>148.82</v>
+        <v>55.97</v>
       </c>
       <c r="V24" t="n">
         <v>274.14</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2281.83</v>
+        <v>897.29</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>877.73</v>
+        <v>870.77</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>241.92</v>
+        <v>148.46</v>
       </c>
       <c r="V25" t="n">
         <v>744.33</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.83</v>
+        <v>12.27</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>471.28</v>
+        <v>246.73</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>161.88</v>
+        <v>161.38</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>36.34</v>
+        <v>25.32</v>
       </c>
       <c r="V27" t="n">
         <v>121.85</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>255.2</v>
+        <v>189.2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.21</v>
+        <v>30.4</v>
       </c>
       <c r="V28" t="n">
         <v>58.09</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.7</v>
+        <v>182.02</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>32.59</v>
+        <v>30.71</v>
       </c>
       <c r="V29" t="n">
         <v>60.89</v>
@@ -3536,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1313.14</v>
+        <v>497.16</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>356.53</v>
+        <v>353.66</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>121.17</v>
+        <v>67.84</v>
       </c>
       <c r="V30" t="n">
         <v>344.14</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>829.98</v>
+        <v>678.72</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>47.51</v>
+        <v>41.02</v>
       </c>
       <c r="V31" t="n">
         <v>43.75</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>705.12</v>
+        <v>312.49</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>48.68</v>
+        <v>32.85</v>
       </c>
       <c r="V32" t="n">
         <v>80.88</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>27.03</v>
+        <v>55.51</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>98.83</v>
+        <v>58.06</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.09</v>
+        <v>3.21</v>
       </c>
       <c r="V33" t="n">
         <v>48.95</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>547.56</v>
+        <v>434.96</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>47.77</v>
+        <v>43.07</v>
       </c>
       <c r="V35" t="n">
         <v>91.89</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>9561.45</v>
+        <v>4317.78</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1043.02</v>
+        <v>625.35</v>
       </c>
       <c r="V36" t="n">
         <v>3247</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>277.17</v>
+        <v>212.43</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>199.12</v>
+        <v>176.58</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>29.84</v>
+        <v>31.35</v>
       </c>
       <c r="V37" t="n">
         <v>207.18</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3861.22</v>
+        <v>2005.79</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>524.05</v>
+        <v>364.07</v>
       </c>
       <c r="V38" t="n">
         <v>1906.3</v>
